--- a/released_outputs/table3_abs_risk.xlsx
+++ b/released_outputs/table3_abs_risk.xlsx
@@ -13,36 +13,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Table 3: Absolute risk of death by 28-days</t>
   </si>
   <si>
-    <t>Sex/Age group</t>
-  </si>
-  <si>
-    <t>F: 0-&lt;65</t>
-  </si>
-  <si>
-    <t>F: 65-&lt;75</t>
-  </si>
-  <si>
-    <t>F: 75-&lt;85</t>
-  </si>
-  <si>
-    <t>F: 85+</t>
-  </si>
-  <si>
-    <t>M: 0-&lt;65</t>
-  </si>
-  <si>
-    <t>M: 65-&lt;75</t>
-  </si>
-  <si>
-    <t>M: 75-&lt;85</t>
-  </si>
-  <si>
-    <t>M: 85+</t>
+    <t>Comorbidities/Sex/Age group</t>
+  </si>
+  <si>
+    <t>No Comorbidities</t>
+  </si>
+  <si>
+    <t>Female: 0-&lt;65</t>
+  </si>
+  <si>
+    <t>65-&lt;75</t>
+  </si>
+  <si>
+    <t>75-&lt;85</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+  <si>
+    <t>Male: 0-&lt;65</t>
+  </si>
+  <si>
+    <t>1 Comorbidity</t>
+  </si>
+  <si>
+    <t>2+ Comorbidities</t>
   </si>
   <si>
     <t/>
@@ -51,55 +51,151 @@
     <t>non-VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.06 (0.04-0.08)</t>
-  </si>
-  <si>
-    <t>0.62 (0.44-0.81)</t>
-  </si>
-  <si>
-    <t>1.53 (1.07-1.99)</t>
-  </si>
-  <si>
-    <t>3.26 (2.15-4.34)</t>
-  </si>
-  <si>
-    <t>0.11 (0.08-0.14)</t>
-  </si>
-  <si>
-    <t>1.15 (0.83-1.47)</t>
-  </si>
-  <si>
-    <t>2.77 (1.96-3.57)</t>
-  </si>
-  <si>
-    <t>5.67 (3.78-7.50)</t>
+    <t>0.04 (0.03-0.06)</t>
+  </si>
+  <si>
+    <t>0.45 (0.29-0.62)</t>
+  </si>
+  <si>
+    <t>1.14 (0.70-1.57)</t>
+  </si>
+  <si>
+    <t>2.52 (1.46-3.58)</t>
+  </si>
+  <si>
+    <t>0.08 (0.06-0.10)</t>
+  </si>
+  <si>
+    <t>0.85 (0.55-1.15)</t>
+  </si>
+  <si>
+    <t>2.12 (1.33-2.92)</t>
+  </si>
+  <si>
+    <t>4.63 (2.68-6.57)</t>
+  </si>
+  <si>
+    <t>0.10 (0.06-0.13)</t>
+  </si>
+  <si>
+    <t>1.01 (0.68-1.35)</t>
+  </si>
+  <si>
+    <t>2.53 (1.70-3.35)</t>
+  </si>
+  <si>
+    <t>5.47 (3.53-7.42)</t>
+  </si>
+  <si>
+    <t>0.18 (0.12-0.25)</t>
+  </si>
+  <si>
+    <t>1.89 (1.31-2.48)</t>
+  </si>
+  <si>
+    <t>4.63 (3.18-6.09)</t>
+  </si>
+  <si>
+    <t>9.74 (6.38-13.11)</t>
+  </si>
+  <si>
+    <t>0.19 (0.12-0.27)</t>
+  </si>
+  <si>
+    <t>2.02 (1.36-2.69)</t>
+  </si>
+  <si>
+    <t>4.94 (3.51-6.36)</t>
+  </si>
+  <si>
+    <t>10.33 (7.25-13.42)</t>
+  </si>
+  <si>
+    <t>0.37 (0.23-0.50)</t>
+  </si>
+  <si>
+    <t>3.73 (2.63-4.84)</t>
+  </si>
+  <si>
+    <t>8.83 (6.52-11.14)</t>
+  </si>
+  <si>
+    <t>17.59 (12.75-22.43)</t>
   </si>
   <si>
     <t>VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.09 (0.07-0.12)</t>
-  </si>
-  <si>
-    <t>0.96 (0.66-1.26)</t>
-  </si>
-  <si>
-    <t>2.34 (1.59-3.08)</t>
-  </si>
-  <si>
-    <t>4.88 (3.14-6.56)</t>
-  </si>
-  <si>
-    <t>0.17 (0.13-0.22)</t>
-  </si>
-  <si>
-    <t>1.77 (1.27-2.27)</t>
-  </si>
-  <si>
-    <t>4.18 (2.91-5.41)</t>
-  </si>
-  <si>
-    <t>8.29 (5.48-10.93)</t>
+    <t>0.07 (0.05-0.09)</t>
+  </si>
+  <si>
+    <t>0.75 (0.48-1.03)</t>
+  </si>
+  <si>
+    <t>1.89 (1.16-2.61)</t>
+  </si>
+  <si>
+    <t>4.14 (2.38-5.89)</t>
+  </si>
+  <si>
+    <t>0.13 (0.10-0.17)</t>
+  </si>
+  <si>
+    <t>1.41 (0.93-1.90)</t>
+  </si>
+  <si>
+    <t>3.49 (2.20-4.79)</t>
+  </si>
+  <si>
+    <t>7.48 (4.38-10.58)</t>
+  </si>
+  <si>
+    <t>0.16 (0.10-0.22)</t>
+  </si>
+  <si>
+    <t>1.68 (1.11-2.26)</t>
+  </si>
+  <si>
+    <t>4.15 (2.75-5.55)</t>
+  </si>
+  <si>
+    <t>8.80 (5.62-11.98)</t>
+  </si>
+  <si>
+    <t>0.30 (0.20-0.41)</t>
+  </si>
+  <si>
+    <t>3.12 (2.15-4.10)</t>
+  </si>
+  <si>
+    <t>7.50 (5.14-9.85)</t>
+  </si>
+  <si>
+    <t>15.22 (10.07-20.37)</t>
+  </si>
+  <si>
+    <t>0.32 (0.20-0.45)</t>
+  </si>
+  <si>
+    <t>3.33 (2.21-4.45)</t>
+  </si>
+  <si>
+    <t>7.96 (5.59-10.34)</t>
+  </si>
+  <si>
+    <t>16.08 (11.24-20.92)</t>
+  </si>
+  <si>
+    <t>0.61 (0.39-0.84)</t>
+  </si>
+  <si>
+    <t>6.07 (4.27-7.88)</t>
+  </si>
+  <si>
+    <t>13.88 (10.25-17.52)</t>
+  </si>
+  <si>
+    <t>26.16 (19.28-33.04)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -165,7 +261,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -173,10 +269,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -184,10 +280,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -195,10 +291,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -206,10 +302,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -217,10 +313,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -228,32 +324,241 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table3_abs_risk.xlsx
+++ b/released_outputs/table3_abs_risk.xlsx
@@ -51,151 +51,151 @@
     <t>non-VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.04 (0.03-0.06)</t>
-  </si>
-  <si>
-    <t>0.45 (0.29-0.62)</t>
-  </si>
-  <si>
-    <t>1.14 (0.70-1.57)</t>
-  </si>
-  <si>
-    <t>2.52 (1.46-3.58)</t>
-  </si>
-  <si>
-    <t>0.08 (0.06-0.10)</t>
-  </si>
-  <si>
-    <t>0.85 (0.55-1.15)</t>
-  </si>
-  <si>
-    <t>2.12 (1.33-2.92)</t>
-  </si>
-  <si>
-    <t>4.63 (2.68-6.57)</t>
-  </si>
-  <si>
-    <t>0.10 (0.06-0.13)</t>
-  </si>
-  <si>
-    <t>1.01 (0.68-1.35)</t>
-  </si>
-  <si>
-    <t>2.53 (1.70-3.35)</t>
-  </si>
-  <si>
-    <t>5.47 (3.53-7.42)</t>
-  </si>
-  <si>
-    <t>0.18 (0.12-0.25)</t>
-  </si>
-  <si>
-    <t>1.89 (1.31-2.48)</t>
-  </si>
-  <si>
-    <t>4.63 (3.18-6.09)</t>
-  </si>
-  <si>
-    <t>9.74 (6.38-13.11)</t>
-  </si>
-  <si>
-    <t>0.19 (0.12-0.27)</t>
-  </si>
-  <si>
-    <t>2.02 (1.36-2.69)</t>
-  </si>
-  <si>
-    <t>4.94 (3.51-6.36)</t>
-  </si>
-  <si>
-    <t>10.33 (7.25-13.42)</t>
-  </si>
-  <si>
-    <t>0.37 (0.23-0.50)</t>
-  </si>
-  <si>
-    <t>3.73 (2.63-4.84)</t>
-  </si>
-  <si>
-    <t>8.83 (6.52-11.14)</t>
-  </si>
-  <si>
-    <t>17.59 (12.75-22.43)</t>
+    <t>0.05 (0.03-0.06)</t>
+  </si>
+  <si>
+    <t>0.45 (0.30-0.59)</t>
+  </si>
+  <si>
+    <t>1.08 (0.71-1.45)</t>
+  </si>
+  <si>
+    <t>2.36 (1.47-3.25)</t>
+  </si>
+  <si>
+    <t>0.09 (0.07-0.11)</t>
+  </si>
+  <si>
+    <t>0.85 (0.59-1.12)</t>
+  </si>
+  <si>
+    <t>2.03 (1.35-2.71)</t>
+  </si>
+  <si>
+    <t>4.38 (2.72-6.03)</t>
+  </si>
+  <si>
+    <t>0.11 (0.08-0.15)</t>
+  </si>
+  <si>
+    <t>1.09 (0.78-1.41)</t>
+  </si>
+  <si>
+    <t>2.60 (1.84-3.35)</t>
+  </si>
+  <si>
+    <t>5.54 (3.77-7.31)</t>
+  </si>
+  <si>
+    <t>0.22 (0.15-0.28)</t>
+  </si>
+  <si>
+    <t>2.06 (1.51-2.62)</t>
+  </si>
+  <si>
+    <t>4.81 (3.48-6.14)</t>
+  </si>
+  <si>
+    <t>9.94 (6.87-13.01)</t>
+  </si>
+  <si>
+    <t>0.21 (0.14-0.28)</t>
+  </si>
+  <si>
+    <t>1.99 (1.41-2.57)</t>
+  </si>
+  <si>
+    <t>4.66 (3.45-5.87)</t>
+  </si>
+  <si>
+    <t>9.65 (7.01-12.29)</t>
+  </si>
+  <si>
+    <t>0.40 (0.27-0.52)</t>
+  </si>
+  <si>
+    <t>3.72 (2.74-4.69)</t>
+  </si>
+  <si>
+    <t>8.44 (6.44-10.44)</t>
+  </si>
+  <si>
+    <t>16.65 (12.42-20.88)</t>
   </si>
   <si>
     <t>VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.07 (0.05-0.09)</t>
-  </si>
-  <si>
-    <t>0.75 (0.48-1.03)</t>
-  </si>
-  <si>
-    <t>1.89 (1.16-2.61)</t>
-  </si>
-  <si>
-    <t>4.14 (2.38-5.89)</t>
-  </si>
-  <si>
-    <t>0.13 (0.10-0.17)</t>
-  </si>
-  <si>
-    <t>1.41 (0.93-1.90)</t>
-  </si>
-  <si>
-    <t>3.49 (2.20-4.79)</t>
-  </si>
-  <si>
-    <t>7.48 (4.38-10.58)</t>
-  </si>
-  <si>
-    <t>0.16 (0.10-0.22)</t>
-  </si>
-  <si>
-    <t>1.68 (1.11-2.26)</t>
-  </si>
-  <si>
-    <t>4.15 (2.75-5.55)</t>
-  </si>
-  <si>
-    <t>8.80 (5.62-11.98)</t>
-  </si>
-  <si>
-    <t>0.30 (0.20-0.41)</t>
-  </si>
-  <si>
-    <t>3.12 (2.15-4.10)</t>
-  </si>
-  <si>
-    <t>7.50 (5.14-9.85)</t>
-  </si>
-  <si>
-    <t>15.22 (10.07-20.37)</t>
-  </si>
-  <si>
-    <t>0.32 (0.20-0.45)</t>
-  </si>
-  <si>
-    <t>3.33 (2.21-4.45)</t>
-  </si>
-  <si>
-    <t>7.96 (5.59-10.34)</t>
-  </si>
-  <si>
-    <t>16.08 (11.24-20.92)</t>
-  </si>
-  <si>
-    <t>0.61 (0.39-0.84)</t>
-  </si>
-  <si>
-    <t>6.07 (4.27-7.88)</t>
-  </si>
-  <si>
-    <t>13.88 (10.25-17.52)</t>
-  </si>
-  <si>
-    <t>26.16 (19.28-33.04)</t>
+    <t>0.07 (0.06-0.09)</t>
+  </si>
+  <si>
+    <t>0.72 (0.50-0.95)</t>
+  </si>
+  <si>
+    <t>1.73 (1.15-2.31)</t>
+  </si>
+  <si>
+    <t>3.75 (2.34-5.16)</t>
+  </si>
+  <si>
+    <t>0.14 (0.11-0.17)</t>
+  </si>
+  <si>
+    <t>1.37 (0.96-1.77)</t>
+  </si>
+  <si>
+    <t>3.24 (2.19-4.30)</t>
+  </si>
+  <si>
+    <t>6.87 (4.33-9.42)</t>
+  </si>
+  <si>
+    <t>0.18 (0.13-0.24)</t>
+  </si>
+  <si>
+    <t>1.75 (1.25-2.25)</t>
+  </si>
+  <si>
+    <t>4.13 (2.94-5.32)</t>
+  </si>
+  <si>
+    <t>8.64 (5.91-11.38)</t>
+  </si>
+  <si>
+    <t>0.35 (0.25-0.45)</t>
+  </si>
+  <si>
+    <t>3.29 (2.44-4.14)</t>
+  </si>
+  <si>
+    <t>7.54 (5.52-9.55)</t>
+  </si>
+  <si>
+    <t>15.10 (10.63-19.58)</t>
+  </si>
+  <si>
+    <t>0.34 (0.22-0.45)</t>
+  </si>
+  <si>
+    <t>3.18 (2.27-4.09)</t>
+  </si>
+  <si>
+    <t>7.31 (5.42-9.20)</t>
+  </si>
+  <si>
+    <t>14.68 (10.73-18.63)</t>
+  </si>
+  <si>
+    <t>0.64 (0.44-0.84)</t>
+  </si>
+  <si>
+    <t>5.87 (4.38-7.35)</t>
+  </si>
+  <si>
+    <t>12.93 (9.99-15.87)</t>
+  </si>
+  <si>
+    <t>24.34 (18.55-30.13)</t>
   </si>
 </sst>
 </file>

--- a/released_outputs/table3_abs_risk.xlsx
+++ b/released_outputs/table3_abs_risk.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Table 3: Absolute risk of death by 28-days</t>
   </si>
@@ -196,6 +196,81 @@
   </si>
   <si>
     <t>24.34 (18.55-30.13)</t>
+  </si>
+  <si>
+    <t>Diff (95% CI)</t>
+  </si>
+  <si>
+    <t>0.03 (0.02-0.05)</t>
+  </si>
+  <si>
+    <t>0.31 (0.14-0.49)</t>
+  </si>
+  <si>
+    <t>0.74 (0.32-1.16)</t>
+  </si>
+  <si>
+    <t>1.58 (0.65-2.51)</t>
+  </si>
+  <si>
+    <t>0.06 (0.03-0.09)</t>
+  </si>
+  <si>
+    <t>0.59 (0.27-0.91)</t>
+  </si>
+  <si>
+    <t>1.37 (0.60-2.14)</t>
+  </si>
+  <si>
+    <t>2.81 (1.18-4.44)</t>
+  </si>
+  <si>
+    <t>0.08 (0.03-0.12)</t>
+  </si>
+  <si>
+    <t>0.75 (0.34-1.16)</t>
+  </si>
+  <si>
+    <t>1.73 (0.79-2.67)</t>
+  </si>
+  <si>
+    <t>3.48 (1.55-5.40)</t>
+  </si>
+  <si>
+    <t>0.15 (0.07-0.23)</t>
+  </si>
+  <si>
+    <t>1.39 (0.65-2.12)</t>
+  </si>
+  <si>
+    <t>3.06 (1.44-4.69)</t>
+  </si>
+  <si>
+    <t>5.73 (2.68-8.78)</t>
+  </si>
+  <si>
+    <t>0.15 (0.06-0.23)</t>
+  </si>
+  <si>
+    <t>1.34 (0.61-2.07)</t>
+  </si>
+  <si>
+    <t>2.97 (1.40-4.54)</t>
+  </si>
+  <si>
+    <t>5.59 (2.67-8.52)</t>
+  </si>
+  <si>
+    <t>0.28 (0.12-0.43)</t>
+  </si>
+  <si>
+    <t>2.42 (1.15-3.69)</t>
+  </si>
+  <si>
+    <t>5.00 (2.46-7.55)</t>
+  </si>
+  <si>
+    <t>8.46 (4.23-12.69)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -252,6 +327,9 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -263,6 +341,9 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -274,6 +355,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -285,6 +369,9 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -296,6 +383,9 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -307,6 +397,9 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -318,6 +411,9 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -329,6 +425,9 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -340,6 +439,9 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -351,6 +453,9 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -362,6 +467,9 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -373,6 +481,9 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -384,6 +495,9 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -395,6 +509,9 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -406,6 +523,9 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -417,6 +537,9 @@
       <c r="C16" t="s">
         <v>48</v>
       </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -428,6 +551,9 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -439,6 +565,9 @@
       <c r="C18" t="s">
         <v>50</v>
       </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -450,6 +579,9 @@
       <c r="C19" t="s">
         <v>51</v>
       </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -461,6 +593,9 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -472,6 +607,9 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -483,6 +621,9 @@
       <c r="C22" t="s">
         <v>53</v>
       </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -494,6 +635,9 @@
       <c r="C23" t="s">
         <v>54</v>
       </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -505,6 +649,9 @@
       <c r="C24" t="s">
         <v>55</v>
       </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -516,6 +663,9 @@
       <c r="C25" t="s">
         <v>56</v>
       </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -527,6 +677,9 @@
       <c r="C26" t="s">
         <v>57</v>
       </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -538,6 +691,9 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -549,6 +705,9 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -560,6 +719,9 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/released_outputs/table3_abs_risk.xlsx
+++ b/released_outputs/table3_abs_risk.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>Table 3: Absolute risk of death by 28-days</t>
   </si>
@@ -24,7 +24,13 @@
     <t>No Comorbidities</t>
   </si>
   <si>
-    <t>Female: 0-&lt;65</t>
+    <t>Female: 0-&lt;40</t>
+  </si>
+  <si>
+    <t>40-&lt;55</t>
+  </si>
+  <si>
+    <t>55-&lt;65</t>
   </si>
   <si>
     <t>65-&lt;75</t>
@@ -36,7 +42,7 @@
     <t>85+</t>
   </si>
   <si>
-    <t>Male: 0-&lt;65</t>
+    <t>Male: 0-&lt;40</t>
   </si>
   <si>
     <t>1 Comorbidity</t>
@@ -51,226 +57,307 @@
     <t>non-VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.05 (0.03-0.06)</t>
-  </si>
-  <si>
-    <t>0.45 (0.30-0.59)</t>
-  </si>
-  <si>
-    <t>1.08 (0.71-1.45)</t>
-  </si>
-  <si>
-    <t>2.36 (1.47-3.25)</t>
-  </si>
-  <si>
-    <t>0.09 (0.07-0.11)</t>
-  </si>
-  <si>
-    <t>0.85 (0.59-1.12)</t>
-  </si>
-  <si>
-    <t>2.03 (1.35-2.71)</t>
-  </si>
-  <si>
-    <t>4.38 (2.72-6.03)</t>
-  </si>
-  <si>
-    <t>0.11 (0.08-0.15)</t>
-  </si>
-  <si>
-    <t>1.09 (0.78-1.41)</t>
-  </si>
-  <si>
-    <t>2.60 (1.84-3.35)</t>
-  </si>
-  <si>
-    <t>5.54 (3.77-7.31)</t>
-  </si>
-  <si>
-    <t>0.22 (0.15-0.28)</t>
-  </si>
-  <si>
-    <t>2.06 (1.51-2.62)</t>
-  </si>
-  <si>
-    <t>4.81 (3.48-6.14)</t>
-  </si>
-  <si>
-    <t>9.94 (6.87-13.01)</t>
-  </si>
-  <si>
-    <t>0.21 (0.14-0.28)</t>
-  </si>
-  <si>
-    <t>1.99 (1.41-2.57)</t>
-  </si>
-  <si>
-    <t>4.66 (3.45-5.87)</t>
-  </si>
-  <si>
-    <t>9.65 (7.01-12.29)</t>
-  </si>
-  <si>
-    <t>0.40 (0.27-0.52)</t>
-  </si>
-  <si>
-    <t>3.72 (2.74-4.69)</t>
-  </si>
-  <si>
-    <t>8.44 (6.44-10.44)</t>
-  </si>
-  <si>
-    <t>16.65 (12.42-20.88)</t>
+    <t>0.01 (0.00-0.01)</t>
+  </si>
+  <si>
+    <t>0.06 (0.04-0.08)</t>
+  </si>
+  <si>
+    <t>0.17 (0.12-0.23)</t>
+  </si>
+  <si>
+    <t>0.64 (0.45-0.83)</t>
+  </si>
+  <si>
+    <t>1.58 (1.10-2.07)</t>
+  </si>
+  <si>
+    <t>3.69 (2.44-4.93)</t>
+  </si>
+  <si>
+    <t>0.02 (0.00-0.03)</t>
+  </si>
+  <si>
+    <t>0.11 (0.07-0.14)</t>
+  </si>
+  <si>
+    <t>0.32 (0.22-0.41)</t>
+  </si>
+  <si>
+    <t>1.16 (0.84-1.49)</t>
+  </si>
+  <si>
+    <t>2.85 (1.99-3.71)</t>
+  </si>
+  <si>
+    <t>6.49 (4.31-8.67)</t>
+  </si>
+  <si>
+    <t>0.01 (0.00-0.02)</t>
+  </si>
+  <si>
+    <t>0.09 (0.06-0.13)</t>
+  </si>
+  <si>
+    <t>0.27 (0.18-0.36)</t>
+  </si>
+  <si>
+    <t>1.00 (0.72-1.28)</t>
+  </si>
+  <si>
+    <t>2.45 (1.77-3.13)</t>
+  </si>
+  <si>
+    <t>5.61 (3.94-7.29)</t>
+  </si>
+  <si>
+    <t>0.02 (0.01-0.04)</t>
+  </si>
+  <si>
+    <t>0.17 (0.11-0.23)</t>
+  </si>
+  <si>
+    <t>0.50 (0.35-0.65)</t>
+  </si>
+  <si>
+    <t>1.80 (1.33-2.28)</t>
+  </si>
+  <si>
+    <t>4.36 (3.20-5.53)</t>
+  </si>
+  <si>
+    <t>9.70 (6.88-12.52)</t>
+  </si>
+  <si>
+    <t>0.17 (0.11-0.24)</t>
+  </si>
+  <si>
+    <t>0.52 (0.34-0.69)</t>
+  </si>
+  <si>
+    <t>1.87 (1.35-2.38)</t>
+  </si>
+  <si>
+    <t>4.51 (3.39-5.63)</t>
+  </si>
+  <si>
+    <t>10.01 (7.47-12.55)</t>
+  </si>
+  <si>
+    <t>0.04 (0.01-0.08)</t>
+  </si>
+  <si>
+    <t>0.32 (0.20-0.44)</t>
+  </si>
+  <si>
+    <t>0.94 (0.64-1.23)</t>
+  </si>
+  <si>
+    <t>3.35 (2.50-4.19)</t>
+  </si>
+  <si>
+    <t>7.88 (6.07-9.68)</t>
+  </si>
+  <si>
+    <t>16.65 (12.70-20.60)</t>
   </si>
   <si>
     <t>VOC (95% CI)</t>
   </si>
   <si>
-    <t>0.07 (0.06-0.09)</t>
-  </si>
-  <si>
-    <t>0.72 (0.50-0.95)</t>
-  </si>
-  <si>
-    <t>1.73 (1.15-2.31)</t>
-  </si>
-  <si>
-    <t>3.75 (2.34-5.16)</t>
-  </si>
-  <si>
-    <t>0.14 (0.11-0.17)</t>
-  </si>
-  <si>
-    <t>1.37 (0.96-1.77)</t>
-  </si>
-  <si>
-    <t>3.24 (2.19-4.30)</t>
-  </si>
-  <si>
-    <t>6.87 (4.33-9.42)</t>
-  </si>
-  <si>
-    <t>0.18 (0.13-0.24)</t>
-  </si>
-  <si>
-    <t>1.75 (1.25-2.25)</t>
-  </si>
-  <si>
-    <t>4.13 (2.94-5.32)</t>
-  </si>
-  <si>
-    <t>8.64 (5.91-11.38)</t>
-  </si>
-  <si>
-    <t>0.35 (0.25-0.45)</t>
-  </si>
-  <si>
-    <t>3.29 (2.44-4.14)</t>
-  </si>
-  <si>
-    <t>7.54 (5.52-9.55)</t>
-  </si>
-  <si>
-    <t>15.10 (10.63-19.58)</t>
-  </si>
-  <si>
-    <t>0.34 (0.22-0.45)</t>
-  </si>
-  <si>
-    <t>3.18 (2.27-4.09)</t>
-  </si>
-  <si>
-    <t>7.31 (5.42-9.20)</t>
-  </si>
-  <si>
-    <t>14.68 (10.73-18.63)</t>
-  </si>
-  <si>
-    <t>0.64 (0.44-0.84)</t>
-  </si>
-  <si>
-    <t>5.87 (4.38-7.35)</t>
-  </si>
-  <si>
-    <t>12.93 (9.99-15.87)</t>
-  </si>
-  <si>
-    <t>24.34 (18.55-30.13)</t>
+    <t>0.10 (0.07-0.13)</t>
+  </si>
+  <si>
+    <t>0.29 (0.21-0.38)</t>
+  </si>
+  <si>
+    <t>1.07 (0.77-1.37)</t>
+  </si>
+  <si>
+    <t>2.63 (1.85-3.41)</t>
+  </si>
+  <si>
+    <t>6.03 (4.04-8.01)</t>
+  </si>
+  <si>
+    <t>0.03 (0.01-0.04)</t>
+  </si>
+  <si>
+    <t>0.18 (0.12-0.24)</t>
+  </si>
+  <si>
+    <t>0.54 (0.39-0.68)</t>
+  </si>
+  <si>
+    <t>1.94 (1.43-2.44)</t>
+  </si>
+  <si>
+    <t>4.68 (3.34-6.03)</t>
+  </si>
+  <si>
+    <t>10.40 (7.08-13.72)</t>
+  </si>
+  <si>
+    <t>0.15 (0.10-0.21)</t>
+  </si>
+  <si>
+    <t>0.46 (0.31-0.60)</t>
+  </si>
+  <si>
+    <t>1.66 (1.21-2.11)</t>
+  </si>
+  <si>
+    <t>4.04 (2.94-5.13)</t>
+  </si>
+  <si>
+    <t>9.05 (6.41-11.68)</t>
+  </si>
+  <si>
+    <t>0.04 (0.01-0.07)</t>
+  </si>
+  <si>
+    <t>0.28 (0.18-0.38)</t>
+  </si>
+  <si>
+    <t>0.83 (0.59-1.08)</t>
+  </si>
+  <si>
+    <t>2.99 (2.25-3.73)</t>
+  </si>
+  <si>
+    <t>7.09 (5.29-8.90)</t>
+  </si>
+  <si>
+    <t>15.21 (11.04-19.38)</t>
+  </si>
+  <si>
+    <t>0.29 (0.18-0.41)</t>
+  </si>
+  <si>
+    <t>0.86 (0.58-1.14)</t>
+  </si>
+  <si>
+    <t>3.09 (2.26-3.92)</t>
+  </si>
+  <si>
+    <t>7.33 (5.56-9.09)</t>
+  </si>
+  <si>
+    <t>15.66 (11.85-19.47)</t>
+  </si>
+  <si>
+    <t>0.08 (0.02-0.13)</t>
+  </si>
+  <si>
+    <t>0.53 (0.33-0.73)</t>
+  </si>
+  <si>
+    <t>1.57 (1.09-2.04)</t>
+  </si>
+  <si>
+    <t>5.48 (4.17-6.79)</t>
+  </si>
+  <si>
+    <t>12.50 (9.80-15.20)</t>
+  </si>
+  <si>
+    <t>24.97 (19.53-30.41)</t>
   </si>
   <si>
     <t>Diff (95% CI)</t>
   </si>
   <si>
-    <t>0.03 (0.02-0.05)</t>
-  </si>
-  <si>
-    <t>0.31 (0.14-0.49)</t>
-  </si>
-  <si>
-    <t>0.74 (0.32-1.16)</t>
-  </si>
-  <si>
-    <t>1.58 (0.65-2.51)</t>
-  </si>
-  <si>
-    <t>0.06 (0.03-0.09)</t>
-  </si>
-  <si>
-    <t>0.59 (0.27-0.91)</t>
-  </si>
-  <si>
-    <t>1.37 (0.60-2.14)</t>
-  </si>
-  <si>
-    <t>2.81 (1.18-4.44)</t>
-  </si>
-  <si>
-    <t>0.08 (0.03-0.12)</t>
-  </si>
-  <si>
-    <t>0.75 (0.34-1.16)</t>
-  </si>
-  <si>
-    <t>1.73 (0.79-2.67)</t>
-  </si>
-  <si>
-    <t>3.48 (1.55-5.40)</t>
-  </si>
-  <si>
-    <t>0.15 (0.07-0.23)</t>
-  </si>
-  <si>
-    <t>1.39 (0.65-2.12)</t>
-  </si>
-  <si>
-    <t>3.06 (1.44-4.69)</t>
-  </si>
-  <si>
-    <t>5.73 (2.68-8.78)</t>
-  </si>
-  <si>
-    <t>0.15 (0.06-0.23)</t>
-  </si>
-  <si>
-    <t>1.34 (0.61-2.07)</t>
-  </si>
-  <si>
-    <t>2.97 (1.40-4.54)</t>
-  </si>
-  <si>
-    <t>5.59 (2.67-8.52)</t>
-  </si>
-  <si>
-    <t>0.28 (0.12-0.43)</t>
-  </si>
-  <si>
-    <t>2.42 (1.15-3.69)</t>
-  </si>
-  <si>
-    <t>5.00 (2.46-7.55)</t>
-  </si>
-  <si>
-    <t>8.46 (4.23-12.69)</t>
+    <t>0.05 (0.02-0.07)</t>
+  </si>
+  <si>
+    <t>0.14 (0.07-0.21)</t>
+  </si>
+  <si>
+    <t>0.51 (0.27-0.76)</t>
+  </si>
+  <si>
+    <t>1.25 (0.65-1.85)</t>
+  </si>
+  <si>
+    <t>2.77 (1.40-4.14)</t>
+  </si>
+  <si>
+    <t>0.09 (0.04-0.13)</t>
+  </si>
+  <si>
+    <t>0.26 (0.14-0.38)</t>
+  </si>
+  <si>
+    <t>0.92 (0.50-1.35)</t>
+  </si>
+  <si>
+    <t>2.18 (1.15-3.21)</t>
+  </si>
+  <si>
+    <t>4.60 (2.39-6.82)</t>
+  </si>
+  <si>
+    <t>0.07 (0.03-0.11)</t>
+  </si>
+  <si>
+    <t>0.22 (0.11-0.33)</t>
+  </si>
+  <si>
+    <t>0.79 (0.42-1.17)</t>
+  </si>
+  <si>
+    <t>1.89 (1.00-2.77)</t>
+  </si>
+  <si>
+    <t>4.05 (2.14-5.96)</t>
+  </si>
+  <si>
+    <t>0.14 (0.06-0.21)</t>
+  </si>
+  <si>
+    <t>0.40 (0.21-0.59)</t>
+  </si>
+  <si>
+    <t>1.41 (0.77-2.05)</t>
+  </si>
+  <si>
+    <t>3.23 (1.76-4.70)</t>
+  </si>
+  <si>
+    <t>6.46 (3.53-9.39)</t>
+  </si>
+  <si>
+    <t>0.02 (0.00-0.04)</t>
+  </si>
+  <si>
+    <t>0.14 (0.06-0.22)</t>
+  </si>
+  <si>
+    <t>0.42 (0.21-0.62)</t>
+  </si>
+  <si>
+    <t>1.46 (0.78-2.14)</t>
+  </si>
+  <si>
+    <t>3.33 (1.84-4.83)</t>
+  </si>
+  <si>
+    <t>6.62 (3.71-9.53)</t>
+  </si>
+  <si>
+    <t>0.26 (0.12-0.40)</t>
+  </si>
+  <si>
+    <t>0.75 (0.38-1.11)</t>
+  </si>
+  <si>
+    <t>2.53 (1.40-3.67)</t>
+  </si>
+  <si>
+    <t>5.44 (3.09-7.78)</t>
+  </si>
+  <si>
+    <t>9.69 (5.63-13.74)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -322,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -336,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -350,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -364,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -378,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -392,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -406,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -420,139 +507,139 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -560,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -574,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -588,139 +675,307 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
